--- a/biology/Botanique/Carissa/Carissa.xlsx
+++ b/biology/Botanique/Carissa/Carissa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carissa est un genre de plantes à fleurs eudicotylédones de la famille des Apocynaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 décembre 2019) :
 Carissa bispinosa (L.) Desf. ex Brenan
 Carissa carandas L.
 Carissa edulis (Forsk.) Vahl
 Carissa macrocarpa (Ecklon) A. DC.
 Carissa spinarum L.
-Selon Catalogue of Life                                   (4 décembre 2019)[3] :
+Selon Catalogue of Life                                   (4 décembre 2019) :
 Carissa andamanensis L. J. Singh &amp; Murugan
 Carissa bispinosa (L.) Desf. ex Brenan
 Carissa boiviniana (Baill.) Leeuwenb.
@@ -538,16 +552,16 @@
 Carissa scabra R. Br.
 Carissa spinarum L.
 Carissa tetramera (Sacleux) Stapf
-Selon GRIN            (4 décembre 2019)[4] :
+Selon GRIN            (4 décembre 2019) :
 Carissa bispinosa (L.) Desf. ex Brenan
 Carissa carandas L.
 Carissa macrocarpa (Eckl.) A. DC.
 Carissa spinarum L.
-Selon ITIS      (4 décembre 2019)[5] :
+Selon ITIS      (4 décembre 2019) :
 Carissa carandas L.
 Carissa edulis (Forssk.) Vahl
 Carissa macrocarpa (Eckl.) A. DC.
-Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019) :
 Carissa andamanensis L.J.Singh &amp; Murugan (2012)
 Carissa bispinosa (L.) Desf. ex Brenan (1954)
 Carissa boiviniana (Baill.) Leeuwenb. (2001)
@@ -557,7 +571,7 @@
 Carissa pichoniana Leeuwenb. (1997)
 Carissa spinarum L. (1771)
 Carissa tetramera (Sacleux) Stapf (1902)
-Selon The Plant List            (4 décembre 2019)[7] :
+Selon The Plant List            (4 décembre 2019) :
 Carissa bispinosa (L.) Desf. ex Brenan
 Carissa boiviniana (Baill.) Leeuwenb.
 Carissa carandas L.
@@ -566,7 +580,7 @@
 Carissa pichoniana Leeuwenb.
 Carissa spinarum L.
 Carissa tetramera (Sacleux) Stapf
-Selon Tropicos                                           (4 décembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 décembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Carissa abyssinica R. Br.
 Carissa acokanthera Pichon
 Carissa acuminata A. DC.
